--- a/spliced/struggle/2023-03-25_18-15-39/data_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-39/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-7.337000370025635</v>
+        <v>-1.487755507230762</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.728102207183838</v>
+        <v>-10.35288465023041</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1531223058700561</v>
+        <v>3.703868120908739</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1293507218360901</v>
+        <v>-2.454914808273315</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1125519201159477</v>
+        <v>-0.2842050492763519</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08384125679731361</v>
+        <v>-2.869386672973633</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-6.978799164295196</v>
+        <v>-4.7107778787613</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.664901077747345</v>
+        <v>-8.213166236877427</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.583686426281929</v>
+        <v>5.28016042709351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0087048299610614</v>
+        <v>2.025781869888306</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2784018218517303</v>
+        <v>1.884366512298584</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1043052375316619</v>
+        <v>0.9054549932479858</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.8466638326644889</v>
+        <v>-6.86208564043045</v>
       </c>
       <c r="D4" t="n">
-        <v>-10.86674356460571</v>
+        <v>-5.234421730041505</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6750529706478123</v>
+        <v>4.114273145794865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8781188130378723</v>
+        <v>1.317789077758789</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6262896060943604</v>
+        <v>-1.244027018547058</v>
       </c>
       <c r="H4" t="n">
-        <v>5.040707111358643</v>
+        <v>1.031140565872192</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.827013075351717</v>
+        <v>-6.348576307296753</v>
       </c>
       <c r="D5" t="n">
-        <v>-11.90198707580566</v>
+        <v>-6.586597442626955</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.7917567044496545</v>
+        <v>1.944473057985312</v>
       </c>
       <c r="F5" t="n">
-        <v>1.481806397438049</v>
+        <v>0.7573201656341553</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.243249893188477</v>
+        <v>-0.4138612151145935</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.08659014850854869</v>
+        <v>0.1753183305263519</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.430202007293701</v>
+        <v>-4.850189305841925</v>
       </c>
       <c r="D6" t="n">
-        <v>-9.128879070281979</v>
+        <v>-7.467463970184327</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.301793336868287</v>
+        <v>6.846671938896179</v>
       </c>
       <c r="F6" t="n">
-        <v>1.561524271965027</v>
+        <v>0.5755877494812012</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.904219627380371</v>
+        <v>-0.2176207453012466</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.314276576042175</v>
+        <v>-1.24479067325592</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.715105593204499</v>
+        <v>0.7637936472892619</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.065108776092529</v>
+        <v>-3.36792755126954</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.082018077373505</v>
+        <v>6.735066413879379</v>
       </c>
       <c r="F7" t="n">
-        <v>1.813658952713013</v>
+        <v>0.6409503817558289</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.191034555435181</v>
+        <v>-4.134488582611084</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.289842009544373</v>
+        <v>0.0209221355617046</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.636100172996518</v>
+        <v>-5.654898561537283</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.636342585086819</v>
+        <v>-7.294652104377757</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.990647315979012</v>
+        <v>-0.4670590609312262</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.153897285461426</v>
+        <v>-1.424232363700867</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9796751141548156</v>
+        <v>-3.165656328201294</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.053729057312012</v>
+        <v>-0.2144137024879455</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3153681159019437</v>
+        <v>1.988154411315929</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.676534265279773</v>
+        <v>-8.051345348358154</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.98052114248275</v>
+        <v>-4.82868674397469</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4179845452308655</v>
+        <v>-2.829985857009888</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6583600044250488</v>
+        <v>-4.054770946502686</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.204154491424561</v>
+        <v>1.877952456474304</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.697560787200929</v>
+        <v>1.445369705557815</v>
       </c>
       <c r="D10" t="n">
-        <v>-10.05280113220215</v>
+        <v>-8.260547280311584</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3640046119689977</v>
+        <v>-3.376170933246607</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0714712366461753</v>
+        <v>4.016286373138428</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5574145317077637</v>
+        <v>-3.601814270019531</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.121993064880371</v>
+        <v>-2.621833562850952</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-5.751265227794648</v>
+        <v>-2.370766460895542</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.867369353771209</v>
+        <v>-7.741124629974364</v>
       </c>
       <c r="E11" t="n">
-        <v>3.60850352048874</v>
+        <v>-6.762903213500985</v>
       </c>
       <c r="F11" t="n">
-        <v>0.656069278717041</v>
+        <v>-0.9879218339920044</v>
       </c>
       <c r="G11" t="n">
-        <v>2.356260061264038</v>
+        <v>4.384180068969727</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.7611380815505981</v>
+        <v>1.598176240921021</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.462656617164607</v>
+        <v>-2.55821630358695</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.957168936729431</v>
+        <v>-8.715493917465219</v>
       </c>
       <c r="E12" t="n">
-        <v>3.225063145160674</v>
+        <v>-6.844864040613141</v>
       </c>
       <c r="F12" t="n">
-        <v>3.466965675354004</v>
+        <v>-3.011718273162842</v>
       </c>
       <c r="G12" t="n">
-        <v>5.502674102783203</v>
+        <v>2.93963623046875</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3669773042201996</v>
+        <v>0.5337435007095337</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.487755507230762</v>
+        <v>-0.8884068131446955</v>
       </c>
       <c r="D13" t="n">
-        <v>-10.35288465023041</v>
+        <v>-10.84955549240112</v>
       </c>
       <c r="E13" t="n">
-        <v>3.703868120908739</v>
+        <v>1.661297619342809</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.454914808273315</v>
+        <v>-0.4014911949634552</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2842050492763519</v>
+        <v>0.9065240025520324</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.869386672973633</v>
+        <v>-0.6395758986473083</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-4.7107778787613</v>
+        <v>-3.758049488067625</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.213166236877427</v>
+        <v>-8.76593214273451</v>
       </c>
       <c r="E14" t="n">
-        <v>5.28016042709351</v>
+        <v>3.196124792099005</v>
       </c>
       <c r="F14" t="n">
-        <v>2.025781869888306</v>
+        <v>-0.99250328540802</v>
       </c>
       <c r="G14" t="n">
-        <v>1.884366512298584</v>
+        <v>2.58121109008789</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9054549932479858</v>
+        <v>-0.3058907687664032</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-6.86208564043045</v>
+        <v>-3.226068019866951</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.234421730041505</v>
+        <v>-4.671105861663801</v>
       </c>
       <c r="E15" t="n">
-        <v>4.114273145794865</v>
+        <v>4.809621334075939</v>
       </c>
       <c r="F15" t="n">
-        <v>1.317789077758789</v>
+        <v>-2.1601722240448</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.244027018547058</v>
+        <v>2.302809238433838</v>
       </c>
       <c r="H15" t="n">
-        <v>1.031140565872192</v>
+        <v>-0.3118467032909393</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-6.348576307296753</v>
+        <v>-4.81333899497986</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.586597442626955</v>
+        <v>-0.7696201205253579</v>
       </c>
       <c r="E16" t="n">
-        <v>1.944473057985312</v>
+        <v>7.391847074031832</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7573201656341553</v>
+        <v>-0.5739079117774963</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.4138612151145935</v>
+        <v>-1.005178809165955</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1753183305263519</v>
+        <v>0.2600758671760559</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-4.850189305841925</v>
+        <v>-0.6115292310714668</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.467463970184327</v>
+        <v>-3.946480035781865</v>
       </c>
       <c r="E17" t="n">
-        <v>6.846671938896179</v>
+        <v>7.73033595085144</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5755877494812012</v>
+        <v>-1.500132322311401</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2176207453012466</v>
+        <v>1.276097536087036</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.24479067325592</v>
+        <v>-1.762957096099854</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7637936472892619</v>
+        <v>-4.580467939376843</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.36792755126954</v>
+        <v>-2.483635365962976</v>
       </c>
       <c r="E18" t="n">
-        <v>6.735066413879379</v>
+        <v>9.400022864341736</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6409503817558289</v>
+        <v>-1.534646153450012</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.134488582611084</v>
+        <v>-1.36818540096283</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0209221355617046</v>
+        <v>0.8046622276306152</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-5.654898561537283</v>
+        <v>-3.186845898628217</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.294652104377757</v>
+        <v>3.314929008483903</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.4670590609312262</v>
+        <v>7.02214622497557</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.424232363700867</v>
+        <v>-1.083674907684326</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.165656328201294</v>
+        <v>1.494787216186523</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2144137024879455</v>
+        <v>0.7244861721992493</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.988154411315929</v>
+        <v>-0.8589091598987735</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.051345348358154</v>
+        <v>5.796535491943349</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.82868674397469</v>
+        <v>4.699775040149696</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.829985857009888</v>
+        <v>1.442405581474304</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.054770946502686</v>
+        <v>-1.076344609260559</v>
       </c>
       <c r="H20" t="n">
-        <v>1.877952456474304</v>
+        <v>0.901637077331543</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.445369705557815</v>
+        <v>-6.590956926345826</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.260547280311584</v>
+        <v>-0.2845994234085083</v>
       </c>
       <c r="E21" t="n">
-        <v>-3.376170933246607</v>
+        <v>5.918066263198853</v>
       </c>
       <c r="F21" t="n">
-        <v>4.016286373138428</v>
+        <v>4.085466861724854</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.601814270019531</v>
+        <v>-3.372739791870117</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.621833562850952</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>struggle</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-2.370766460895542</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-7.741124629974364</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-6.762903213500985</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.9879218339920044</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4.384180068969727</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.598176240921021</v>
+        <v>4.743368625640869</v>
       </c>
     </row>
   </sheetData>
